--- a/配置文档/实体配置相关/实体事件配置.xlsx
+++ b/配置文档/实体配置相关/实体事件配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21840" windowHeight="7665" firstSheet="1"/>
+    <workbookView windowHeight="17655" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_AttrEvent_属性事件" sheetId="3" r:id="rId1"/>
@@ -1074,14 +1074,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1455,14 +1452,14 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C16" sqref="C16"/>
+      <selection pane="topRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="34.5583333333333" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="33.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="49.1166666666667" customWidth="1"/>
     <col min="4" max="4" width="71.3" customWidth="1"/>
     <col min="5" max="5" width="28.525" customWidth="1"/>
     <col min="6" max="6" width="18.475" customWidth="1"/>
@@ -1471,343 +1468,343 @@
     <col min="9" max="9" width="54.1166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="138" customHeight="1" spans="1:9">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="3" customFormat="1" ht="138" customHeight="1" spans="1:9">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A2" s="13" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>2</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A4" s="13" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A5" s="7">
+    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>0</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A6" s="7">
+      <c r="F5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>0</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A7" s="7">
+      <c r="F6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A8" s="7">
+      <c r="F7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>0</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="16" customHeight="1" spans="1:9">
-      <c r="A9" s="7">
+      <c r="F8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="16" customHeight="1" spans="1:9">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>0</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="20" customHeight="1" spans="1:9">
-      <c r="A10" s="7">
+      <c r="F9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>6</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>0</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" s="7" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A11" s="7">
+      <c r="F10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A11" s="6">
         <v>1</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6">
         <v>0</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" s="8" customFormat="1" ht="14.25"/>
-    <row r="13" s="8" customFormat="1" ht="14.25"/>
-    <row r="14" s="8" customFormat="1" ht="14.25"/>
-    <row r="15" s="8" customFormat="1" ht="14.25"/>
-    <row r="16" s="8" customFormat="1" ht="14.25"/>
-    <row r="17" s="8" customFormat="1" ht="14.25"/>
-    <row r="18" s="8" customFormat="1" ht="14.25"/>
-    <row r="19" s="8" customFormat="1" ht="14.25"/>
-    <row r="20" s="8" customFormat="1" ht="14.25"/>
-    <row r="21" s="8" customFormat="1" ht="14.25"/>
-    <row r="22" s="8" customFormat="1" ht="14.25"/>
-    <row r="23" s="8" customFormat="1" ht="14.25"/>
-    <row r="24" s="8" customFormat="1" ht="14.25"/>
-    <row r="25" s="8" customFormat="1" ht="14.25"/>
-    <row r="26" s="8" customFormat="1" ht="14.25"/>
-    <row r="27" s="8" customFormat="1" ht="14.25"/>
-    <row r="28" s="8" customFormat="1" ht="14.25"/>
-    <row r="29" s="8" customFormat="1" ht="14.25"/>
+      <c r="F11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" s="7" customFormat="1" ht="14.25"/>
+    <row r="13" s="7" customFormat="1" ht="14.25"/>
+    <row r="14" s="7" customFormat="1" ht="14.25"/>
+    <row r="15" s="7" customFormat="1" ht="14.25"/>
+    <row r="16" s="7" customFormat="1" ht="14.25"/>
+    <row r="17" s="7" customFormat="1" ht="14.25"/>
+    <row r="18" s="7" customFormat="1" ht="14.25"/>
+    <row r="19" s="7" customFormat="1" ht="14.25"/>
+    <row r="20" s="7" customFormat="1" ht="14.25"/>
+    <row r="21" s="7" customFormat="1" ht="14.25"/>
+    <row r="22" s="7" customFormat="1" ht="14.25"/>
+    <row r="23" s="7" customFormat="1" ht="14.25"/>
+    <row r="24" s="7" customFormat="1" ht="14.25"/>
+    <row r="25" s="7" customFormat="1" ht="14.25"/>
+    <row r="26" s="7" customFormat="1" ht="14.25"/>
+    <row r="27" s="7" customFormat="1" ht="14.25"/>
+    <row r="28" s="7" customFormat="1" ht="14.25"/>
+    <row r="29" s="7" customFormat="1" ht="14.25"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
@@ -2382,19 +2379,19 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>122</v>
       </c>
     </row>

--- a/配置文档/实体配置相关/实体事件配置.xlsx
+++ b/配置文档/实体配置相关/实体事件配置.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="126">
   <si>
     <t>该表用于保存实体事件
 属性和buff 都可以触发该表的事件，可以有以下功能：
@@ -63,8 +63,7 @@
 2 用于添加对应修饰器的事件：
 3 触发其他事件 
 10 播放音效事件 播放音效
-11 播放动画事件 播放动画
-12 播放脚本动画</t>
+11 播放动画事件 播放动画</t>
   </si>
   <si>
     <t>延时触发自身事件(单位:帧)
@@ -96,19 +95,19 @@
     <t>AttrEventDescribe</t>
   </si>
   <si>
-    <t>EventType</t>
-  </si>
-  <si>
-    <t>Delay</t>
-  </si>
-  <si>
-    <t>Param1</t>
-  </si>
-  <si>
-    <t>Param2</t>
-  </si>
-  <si>
-    <t>Param3</t>
+    <t>#EventType</t>
+  </si>
+  <si>
+    <t>#Delay</t>
+  </si>
+  <si>
+    <t>#Param1</t>
+  </si>
+  <si>
+    <t>#Param2</t>
+  </si>
+  <si>
+    <t>#Param3</t>
   </si>
   <si>
     <t>ParamList</t>
@@ -126,28 +125,37 @@
     <t>&lt;(FLOAT)&gt;</t>
   </si>
   <si>
-    <t>自律体-1_结构值清空</t>
+    <t>结构值清空</t>
   </si>
   <si>
     <t>#BASEVALUE</t>
   </si>
   <si>
-    <t>自律体-1_装甲血量一半</t>
-  </si>
-  <si>
-    <t>自律体-1_护盾900</t>
-  </si>
-  <si>
-    <t>自律体-1_护盾过载恢复</t>
-  </si>
-  <si>
-    <t>自律体-1_开始就触发</t>
-  </si>
-  <si>
-    <t>自律体-1_结构值700</t>
+    <t>装甲血量一半</t>
+  </si>
+  <si>
+    <t>护盾900</t>
+  </si>
+  <si>
+    <t>护盾过载恢复</t>
+  </si>
+  <si>
+    <t>开始就触发</t>
+  </si>
+  <si>
+    <t>结构值700</t>
   </si>
   <si>
     <t>护盾过载恢复降到0后，护盾刷新满值</t>
+  </si>
+  <si>
+    <t>护盾过载时，暂停护盾恢复</t>
+  </si>
+  <si>
+    <t>护盾过载时，增加护盾过载条</t>
+  </si>
+  <si>
+    <t>护盾过载条清空时，护盾直接回满</t>
   </si>
   <si>
     <t>数据类型编号</t>
@@ -618,7 +626,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,6 +636,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,7 +964,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,16 +988,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -992,89 +1006,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,6 +1111,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1449,10 +1466,10 @@
   <sheetPr/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+      <selection pane="topRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1468,23 +1485,23 @@
     <col min="9" max="9" width="54.1166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="138" customHeight="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="3" customFormat="1" ht="179" customHeight="1" spans="1:9">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1493,18 +1510,18 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="14">
         <v>2</v>
       </c>
       <c r="D2" s="4">
@@ -1527,13 +1544,13 @@
       </c>
     </row>
     <row r="3" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1556,31 +1573,31 @@
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1594,21 +1611,13 @@
       <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="6">
         <v>0</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
         <v>24</v>
       </c>
@@ -1623,21 +1632,13 @@
       <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6">
         <v>0</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1652,21 +1653,13 @@
       <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
         <v>24</v>
       </c>
@@ -1681,21 +1674,13 @@
       <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="6">
         <v>0</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
         <v>24</v>
       </c>
@@ -1710,21 +1695,13 @@
       <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1739,21 +1716,13 @@
       <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="6">
         <v>0</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="6" t="s">
         <v>24</v>
       </c>
@@ -1768,31 +1737,52 @@
       <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="6">
         <v>0</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" s="7" customFormat="1" ht="14.25"/>
     <row r="13" s="7" customFormat="1" ht="14.25"/>
     <row r="14" s="7" customFormat="1" ht="14.25"/>
-    <row r="15" s="7" customFormat="1" ht="14.25"/>
-    <row r="16" s="7" customFormat="1" ht="14.25"/>
-    <row r="17" s="7" customFormat="1" ht="14.25"/>
+    <row r="15" s="8" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" s="7" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="18" s="7" customFormat="1" ht="14.25"/>
     <row r="19" s="7" customFormat="1" ht="14.25"/>
     <row r="20" s="7" customFormat="1" ht="14.25"/>
@@ -1832,25 +1822,25 @@
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="4" max="4" width="79.9166666666667" customWidth="1"/>
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1858,16 +1848,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1875,16 +1865,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1895,13 +1885,13 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1909,16 +1899,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1926,16 +1916,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1947,10 +1937,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1958,16 +1948,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1975,16 +1965,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1992,16 +1982,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2009,16 +1999,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2026,16 +2016,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2043,13 +2033,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2057,10 +2047,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2068,10 +2058,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2079,10 +2069,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2090,10 +2080,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2101,10 +2091,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2112,10 +2102,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2123,10 +2113,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2134,10 +2124,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2145,10 +2135,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2156,10 +2146,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2170,7 +2160,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2178,10 +2168,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2189,16 +2179,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2206,16 +2196,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2223,16 +2213,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2240,16 +2230,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2257,13 +2247,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2271,16 +2261,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2288,16 +2278,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2305,16 +2295,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2322,16 +2312,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2339,16 +2329,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2356,14 +2346,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2371,11 +2361,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2383,16 +2373,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
